--- a/Proyecto03_0.1/backend/map.xlsx
+++ b/Proyecto03_0.1/backend/map.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="900" windowWidth="28800" windowHeight="14370"/>
+    <workbookView xWindow="0" yWindow="2250" windowWidth="28800" windowHeight="14370"/>
   </bookViews>
   <sheets>
     <sheet name="map" sheetId="1" r:id="rId1"/>
@@ -66,10 +66,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -356,7 +357,7 @@
   <dimension ref="A1:BJ35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AI11" sqref="AI11"/>
+      <selection activeCell="AV30" sqref="AV30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1216,11 +1217,11 @@
         <v>205</v>
       </c>
       <c r="Q8">
-        <f t="shared" ref="Q8:U8" si="14">R8+1</f>
+        <f>R8+1</f>
         <v>449</v>
       </c>
       <c r="R8">
-        <f t="shared" si="14"/>
+        <f t="shared" ref="R8:U8" si="14">S8+1</f>
         <v>448</v>
       </c>
       <c r="S8">
@@ -1343,7 +1344,7 @@
         <f t="shared" si="6"/>
         <v>413</v>
       </c>
-      <c r="AW8">
+      <c r="AW8" s="3">
         <f t="shared" ref="AW8:AZ8" si="19">AX8+1</f>
         <v>425</v>
       </c>
@@ -1982,31 +1983,31 @@
     <row r="15" spans="1:62" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15">
-        <f t="shared" ref="B15:B18" si="20">B16+1</f>
-        <v>518</v>
+        <f t="shared" ref="B15:E15" si="20">C15+1</f>
+        <v>513</v>
       </c>
       <c r="C15">
-        <f>B15+1</f>
-        <v>519</v>
+        <f t="shared" si="20"/>
+        <v>512</v>
       </c>
       <c r="D15">
-        <f t="shared" ref="D15:G15" si="21">C15+1</f>
-        <v>520</v>
+        <f t="shared" si="20"/>
+        <v>511</v>
       </c>
       <c r="E15">
-        <f t="shared" si="21"/>
-        <v>521</v>
+        <f t="shared" si="20"/>
+        <v>510</v>
       </c>
       <c r="F15">
-        <f t="shared" si="21"/>
-        <v>522</v>
+        <f>G15+1</f>
+        <v>509</v>
       </c>
       <c r="G15">
-        <f t="shared" si="21"/>
-        <v>523</v>
+        <f>BD15+1</f>
+        <v>508</v>
       </c>
       <c r="H15">
-        <f t="shared" ref="H15:H19" si="22">H16+1</f>
+        <f t="shared" ref="H15:H19" si="21">H16+1</f>
         <v>146</v>
       </c>
       <c r="I15" s="1"/>
@@ -2015,55 +2016,55 @@
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
-      <c r="O15" s="3">
+      <c r="O15" s="4">
         <f>I17+1</f>
-        <v>668</v>
-      </c>
-      <c r="P15" s="3"/>
+        <v>653</v>
+      </c>
+      <c r="P15" s="4"/>
       <c r="Q15" s="1"/>
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
       <c r="U15" s="1"/>
       <c r="V15" s="1"/>
-      <c r="W15" s="3">
+      <c r="W15" s="4">
         <f>O15+1</f>
-        <v>669</v>
-      </c>
-      <c r="X15" s="3"/>
+        <v>654</v>
+      </c>
+      <c r="X15" s="4"/>
       <c r="Y15" s="1"/>
       <c r="Z15" s="1"/>
       <c r="AA15" s="1"/>
       <c r="AB15" s="1"/>
       <c r="AC15" s="1"/>
       <c r="AD15" s="1"/>
-      <c r="AE15" s="3">
+      <c r="AE15" s="4">
         <f>W15+1</f>
-        <v>670</v>
-      </c>
-      <c r="AF15" s="3"/>
+        <v>655</v>
+      </c>
+      <c r="AF15" s="4"/>
       <c r="AG15" s="1"/>
       <c r="AH15" s="1"/>
       <c r="AI15" s="1"/>
       <c r="AJ15" s="1"/>
       <c r="AK15" s="1"/>
       <c r="AL15" s="1"/>
-      <c r="AM15" s="3">
+      <c r="AM15" s="4">
         <f>AE15+1</f>
-        <v>671</v>
-      </c>
-      <c r="AN15" s="3"/>
+        <v>656</v>
+      </c>
+      <c r="AN15" s="4"/>
       <c r="AO15" s="1"/>
       <c r="AP15" s="1"/>
       <c r="AQ15" s="1"/>
       <c r="AR15" s="1"/>
       <c r="AS15" s="1"/>
       <c r="AT15" s="1"/>
-      <c r="AU15" s="3">
+      <c r="AU15" s="4">
         <f>AM15+1</f>
-        <v>672</v>
-      </c>
-      <c r="AV15" s="3"/>
+        <v>657</v>
+      </c>
+      <c r="AV15" s="4"/>
       <c r="AW15" s="1"/>
       <c r="AX15" s="1"/>
       <c r="AY15" s="1"/>
@@ -2075,19 +2076,19 @@
         <v>61</v>
       </c>
       <c r="BD15">
-        <f t="shared" ref="BD15:BG15" si="23">BE15+1</f>
+        <f t="shared" ref="BD15:BG15" si="22">BE15+1</f>
         <v>507</v>
       </c>
       <c r="BE15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>506</v>
       </c>
       <c r="BF15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>505</v>
       </c>
       <c r="BG15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>504</v>
       </c>
       <c r="BH15">
@@ -2095,7 +2096,7 @@
         <v>503</v>
       </c>
       <c r="BI15">
-        <f t="shared" ref="BI15:BI18" si="24">BI16+1</f>
+        <f t="shared" ref="BI15:BI18" si="23">BI16+1</f>
         <v>502</v>
       </c>
       <c r="BJ15" s="1"/>
@@ -2103,8 +2104,8 @@
     <row r="16" spans="1:62" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16">
-        <f t="shared" si="20"/>
-        <v>517</v>
+        <f>B15+1</f>
+        <v>514</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -2112,162 +2113,162 @@
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>145</v>
       </c>
       <c r="I16">
         <f>J16+1</f>
-        <v>595</v>
+        <v>580</v>
       </c>
       <c r="J16">
-        <f t="shared" ref="J16:M17" si="25">K16+1</f>
-        <v>594</v>
+        <f t="shared" ref="J16:M17" si="24">K16+1</f>
+        <v>579</v>
       </c>
       <c r="K16">
-        <f t="shared" si="25"/>
-        <v>593</v>
+        <f t="shared" si="24"/>
+        <v>578</v>
       </c>
       <c r="L16">
-        <f t="shared" si="25"/>
-        <v>592</v>
+        <f t="shared" si="24"/>
+        <v>577</v>
       </c>
       <c r="M16">
-        <f t="shared" si="25"/>
-        <v>591</v>
+        <f t="shared" si="24"/>
+        <v>576</v>
       </c>
       <c r="N16">
         <f>Q16+1</f>
-        <v>590</v>
-      </c>
-      <c r="O16" s="3"/>
-      <c r="P16" s="3"/>
+        <v>575</v>
+      </c>
+      <c r="O16" s="4"/>
+      <c r="P16" s="4"/>
       <c r="Q16">
-        <f t="shared" ref="Q16:U17" si="26">R16+1</f>
-        <v>589</v>
+        <f t="shared" ref="Q16:U17" si="25">R16+1</f>
+        <v>574</v>
       </c>
       <c r="R16">
-        <f t="shared" si="26"/>
-        <v>588</v>
+        <f t="shared" si="25"/>
+        <v>573</v>
       </c>
       <c r="S16">
-        <f t="shared" si="26"/>
-        <v>587</v>
+        <f t="shared" si="25"/>
+        <v>572</v>
       </c>
       <c r="T16">
-        <f t="shared" si="26"/>
-        <v>586</v>
+        <f t="shared" si="25"/>
+        <v>571</v>
       </c>
       <c r="U16">
-        <f t="shared" si="26"/>
-        <v>585</v>
+        <f t="shared" si="25"/>
+        <v>570</v>
       </c>
       <c r="V16">
         <f>Y16+1</f>
-        <v>584</v>
-      </c>
-      <c r="W16" s="3"/>
-      <c r="X16" s="3"/>
+        <v>569</v>
+      </c>
+      <c r="W16" s="4"/>
+      <c r="X16" s="4"/>
       <c r="Y16">
-        <f t="shared" ref="Y16:AC17" si="27">Z16+1</f>
-        <v>583</v>
+        <f t="shared" ref="Y16:AC17" si="26">Z16+1</f>
+        <v>568</v>
       </c>
       <c r="Z16">
-        <f t="shared" si="27"/>
-        <v>582</v>
+        <f t="shared" si="26"/>
+        <v>567</v>
       </c>
       <c r="AA16">
-        <f t="shared" si="27"/>
-        <v>581</v>
+        <f t="shared" si="26"/>
+        <v>566</v>
       </c>
       <c r="AB16">
-        <f t="shared" si="27"/>
-        <v>580</v>
+        <f t="shared" si="26"/>
+        <v>565</v>
       </c>
       <c r="AC16">
-        <f t="shared" si="27"/>
-        <v>579</v>
+        <f t="shared" si="26"/>
+        <v>564</v>
       </c>
       <c r="AD16">
         <f>AG16+1</f>
-        <v>578</v>
-      </c>
-      <c r="AE16" s="3"/>
-      <c r="AF16" s="3"/>
+        <v>563</v>
+      </c>
+      <c r="AE16" s="4"/>
+      <c r="AF16" s="4"/>
       <c r="AG16">
-        <f t="shared" ref="AG16:AK17" si="28">AH16+1</f>
-        <v>577</v>
+        <f t="shared" ref="AG16:AK17" si="27">AH16+1</f>
+        <v>562</v>
       </c>
       <c r="AH16">
-        <f t="shared" si="28"/>
-        <v>576</v>
+        <f t="shared" si="27"/>
+        <v>561</v>
       </c>
       <c r="AI16">
-        <f t="shared" si="28"/>
-        <v>575</v>
+        <f t="shared" si="27"/>
+        <v>560</v>
       </c>
       <c r="AJ16">
-        <f t="shared" si="28"/>
-        <v>574</v>
+        <f t="shared" si="27"/>
+        <v>559</v>
       </c>
       <c r="AK16">
-        <f t="shared" si="28"/>
-        <v>573</v>
+        <f t="shared" si="27"/>
+        <v>558</v>
       </c>
       <c r="AL16">
         <f>AO16+1</f>
-        <v>572</v>
-      </c>
-      <c r="AM16" s="3"/>
-      <c r="AN16" s="3"/>
+        <v>557</v>
+      </c>
+      <c r="AM16" s="4"/>
+      <c r="AN16" s="4"/>
       <c r="AO16">
-        <f t="shared" ref="AO16:AS17" si="29">AP16+1</f>
-        <v>571</v>
+        <f t="shared" ref="AO16:AS17" si="28">AP16+1</f>
+        <v>556</v>
       </c>
       <c r="AP16">
-        <f t="shared" si="29"/>
-        <v>570</v>
+        <f t="shared" si="28"/>
+        <v>555</v>
       </c>
       <c r="AQ16">
-        <f t="shared" si="29"/>
-        <v>569</v>
+        <f t="shared" si="28"/>
+        <v>554</v>
       </c>
       <c r="AR16">
-        <f t="shared" si="29"/>
-        <v>568</v>
+        <f t="shared" si="28"/>
+        <v>553</v>
       </c>
       <c r="AS16">
-        <f t="shared" si="29"/>
-        <v>567</v>
+        <f t="shared" si="28"/>
+        <v>552</v>
       </c>
       <c r="AT16">
         <f>AW16+1</f>
-        <v>566</v>
-      </c>
-      <c r="AU16" s="3"/>
-      <c r="AV16" s="3"/>
+        <v>551</v>
+      </c>
+      <c r="AU16" s="4"/>
+      <c r="AV16" s="4"/>
       <c r="AW16">
-        <f t="shared" ref="AW16:AZ17" si="30">AX16+1</f>
-        <v>565</v>
+        <f t="shared" ref="AW16:AZ17" si="29">AX16+1</f>
+        <v>550</v>
       </c>
       <c r="AX16">
-        <f t="shared" si="30"/>
-        <v>564</v>
+        <f t="shared" si="29"/>
+        <v>549</v>
       </c>
       <c r="AY16">
-        <f t="shared" si="30"/>
-        <v>563</v>
+        <f t="shared" si="29"/>
+        <v>548</v>
       </c>
       <c r="AZ16">
-        <f t="shared" si="30"/>
-        <v>562</v>
+        <f t="shared" si="29"/>
+        <v>547</v>
       </c>
       <c r="BA16">
         <f>BB16+1</f>
-        <v>561</v>
+        <v>546</v>
       </c>
       <c r="BB16">
         <f>BB19+1</f>
-        <v>560</v>
+        <v>545</v>
       </c>
       <c r="BC16">
         <f t="shared" si="7"/>
@@ -2279,7 +2280,7 @@
       <c r="BG16" s="1"/>
       <c r="BH16" s="1"/>
       <c r="BI16">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>501</v>
       </c>
       <c r="BJ16" s="1"/>
@@ -2287,8 +2288,8 @@
     <row r="17" spans="1:62" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17">
-        <f t="shared" si="20"/>
-        <v>516</v>
+        <f t="shared" ref="B17:B20" si="30">B16+1</f>
+        <v>515</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -2296,162 +2297,162 @@
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>144</v>
       </c>
       <c r="I17">
         <f>J17+1</f>
-        <v>667</v>
+        <v>652</v>
       </c>
       <c r="J17">
-        <f t="shared" si="25"/>
-        <v>666</v>
+        <f t="shared" si="24"/>
+        <v>651</v>
       </c>
       <c r="K17">
-        <f t="shared" si="25"/>
-        <v>665</v>
+        <f t="shared" si="24"/>
+        <v>650</v>
       </c>
       <c r="L17">
-        <f t="shared" si="25"/>
-        <v>664</v>
+        <f t="shared" si="24"/>
+        <v>649</v>
       </c>
       <c r="M17">
-        <f t="shared" si="25"/>
-        <v>663</v>
+        <f t="shared" si="24"/>
+        <v>648</v>
       </c>
       <c r="N17">
         <f>Q17+1</f>
-        <v>662</v>
-      </c>
-      <c r="O17" s="3"/>
-      <c r="P17" s="3"/>
+        <v>647</v>
+      </c>
+      <c r="O17" s="4"/>
+      <c r="P17" s="4"/>
       <c r="Q17">
-        <f t="shared" si="26"/>
-        <v>661</v>
+        <f t="shared" si="25"/>
+        <v>646</v>
       </c>
       <c r="R17">
-        <f t="shared" si="26"/>
-        <v>660</v>
+        <f t="shared" si="25"/>
+        <v>645</v>
       </c>
       <c r="S17">
-        <f t="shared" si="26"/>
-        <v>659</v>
+        <f t="shared" si="25"/>
+        <v>644</v>
       </c>
       <c r="T17">
-        <f t="shared" si="26"/>
-        <v>658</v>
+        <f t="shared" si="25"/>
+        <v>643</v>
       </c>
       <c r="U17">
-        <f t="shared" si="26"/>
-        <v>657</v>
+        <f t="shared" si="25"/>
+        <v>642</v>
       </c>
       <c r="V17">
         <f>Y17+1</f>
-        <v>656</v>
-      </c>
-      <c r="W17" s="3"/>
-      <c r="X17" s="3"/>
+        <v>641</v>
+      </c>
+      <c r="W17" s="4"/>
+      <c r="X17" s="4"/>
       <c r="Y17">
-        <f t="shared" si="27"/>
-        <v>655</v>
+        <f t="shared" si="26"/>
+        <v>640</v>
       </c>
       <c r="Z17">
-        <f t="shared" si="27"/>
-        <v>654</v>
+        <f t="shared" si="26"/>
+        <v>639</v>
       </c>
       <c r="AA17">
-        <f t="shared" si="27"/>
-        <v>653</v>
+        <f t="shared" si="26"/>
+        <v>638</v>
       </c>
       <c r="AB17">
-        <f t="shared" si="27"/>
-        <v>652</v>
+        <f t="shared" si="26"/>
+        <v>637</v>
       </c>
       <c r="AC17">
-        <f t="shared" si="27"/>
-        <v>651</v>
+        <f t="shared" si="26"/>
+        <v>636</v>
       </c>
       <c r="AD17">
         <f>AG17+1</f>
-        <v>650</v>
-      </c>
-      <c r="AE17" s="3"/>
-      <c r="AF17" s="3"/>
+        <v>635</v>
+      </c>
+      <c r="AE17" s="4"/>
+      <c r="AF17" s="4"/>
       <c r="AG17">
-        <f t="shared" si="28"/>
-        <v>649</v>
+        <f t="shared" si="27"/>
+        <v>634</v>
       </c>
       <c r="AH17">
-        <f t="shared" si="28"/>
-        <v>648</v>
+        <f t="shared" si="27"/>
+        <v>633</v>
       </c>
       <c r="AI17">
-        <f t="shared" si="28"/>
-        <v>647</v>
+        <f t="shared" si="27"/>
+        <v>632</v>
       </c>
       <c r="AJ17">
-        <f t="shared" si="28"/>
-        <v>646</v>
+        <f t="shared" si="27"/>
+        <v>631</v>
       </c>
       <c r="AK17">
-        <f t="shared" si="28"/>
-        <v>645</v>
+        <f t="shared" si="27"/>
+        <v>630</v>
       </c>
       <c r="AL17">
         <f>AO17+1</f>
-        <v>644</v>
-      </c>
-      <c r="AM17" s="3"/>
-      <c r="AN17" s="3"/>
+        <v>629</v>
+      </c>
+      <c r="AM17" s="4"/>
+      <c r="AN17" s="4"/>
       <c r="AO17">
-        <f t="shared" si="29"/>
-        <v>643</v>
+        <f t="shared" si="28"/>
+        <v>628</v>
       </c>
       <c r="AP17">
-        <f t="shared" si="29"/>
-        <v>642</v>
+        <f t="shared" si="28"/>
+        <v>627</v>
       </c>
       <c r="AQ17">
-        <f t="shared" si="29"/>
-        <v>641</v>
+        <f t="shared" si="28"/>
+        <v>626</v>
       </c>
       <c r="AR17">
-        <f t="shared" si="29"/>
-        <v>640</v>
+        <f t="shared" si="28"/>
+        <v>625</v>
       </c>
       <c r="AS17">
-        <f t="shared" si="29"/>
-        <v>639</v>
+        <f t="shared" si="28"/>
+        <v>624</v>
       </c>
       <c r="AT17">
         <f>AW17+1</f>
-        <v>638</v>
-      </c>
-      <c r="AU17" s="3"/>
-      <c r="AV17" s="3"/>
+        <v>623</v>
+      </c>
+      <c r="AU17" s="4"/>
+      <c r="AV17" s="4"/>
       <c r="AW17">
-        <f t="shared" si="30"/>
-        <v>637</v>
+        <f t="shared" si="29"/>
+        <v>622</v>
       </c>
       <c r="AX17">
-        <f t="shared" si="30"/>
-        <v>636</v>
+        <f t="shared" si="29"/>
+        <v>621</v>
       </c>
       <c r="AY17">
-        <f t="shared" si="30"/>
-        <v>635</v>
+        <f t="shared" si="29"/>
+        <v>620</v>
       </c>
       <c r="AZ17">
-        <f t="shared" si="30"/>
-        <v>634</v>
+        <f t="shared" si="29"/>
+        <v>619</v>
       </c>
       <c r="BA17">
         <f>BB17+1</f>
-        <v>633</v>
+        <v>618</v>
       </c>
       <c r="BB17">
         <f>BB18+1</f>
-        <v>632</v>
+        <v>617</v>
       </c>
       <c r="BC17">
         <f t="shared" si="7"/>
@@ -2463,7 +2464,7 @@
       <c r="BG17" s="1"/>
       <c r="BH17" s="1"/>
       <c r="BI17">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>500</v>
       </c>
       <c r="BJ17" s="1"/>
@@ -2471,8 +2472,8 @@
     <row r="18" spans="1:62" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18">
-        <f t="shared" si="20"/>
-        <v>515</v>
+        <f t="shared" si="30"/>
+        <v>516</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -2480,162 +2481,162 @@
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>143</v>
       </c>
-      <c r="I18">
+      <c r="I18" s="3">
         <f>I16+1</f>
-        <v>596</v>
+        <v>581</v>
       </c>
       <c r="J18">
         <f>I18+1</f>
-        <v>597</v>
+        <v>582</v>
       </c>
       <c r="K18">
         <f t="shared" ref="K18:N19" si="31">J18+1</f>
-        <v>598</v>
+        <v>583</v>
       </c>
       <c r="L18">
         <f t="shared" si="31"/>
-        <v>599</v>
+        <v>584</v>
       </c>
       <c r="M18">
         <f t="shared" si="31"/>
-        <v>600</v>
+        <v>585</v>
       </c>
       <c r="N18">
         <f t="shared" si="31"/>
-        <v>601</v>
-      </c>
-      <c r="O18" s="3"/>
-      <c r="P18" s="3"/>
-      <c r="Q18">
+        <v>586</v>
+      </c>
+      <c r="O18" s="4"/>
+      <c r="P18" s="4"/>
+      <c r="Q18" s="3">
         <f>N18+1</f>
-        <v>602</v>
+        <v>587</v>
       </c>
       <c r="R18">
         <f>Q18+1</f>
-        <v>603</v>
+        <v>588</v>
       </c>
       <c r="S18">
         <f t="shared" ref="S18:V19" si="32">R18+1</f>
-        <v>604</v>
+        <v>589</v>
       </c>
       <c r="T18">
         <f t="shared" si="32"/>
-        <v>605</v>
+        <v>590</v>
       </c>
       <c r="U18">
         <f t="shared" si="32"/>
-        <v>606</v>
+        <v>591</v>
       </c>
       <c r="V18">
         <f t="shared" si="32"/>
-        <v>607</v>
-      </c>
-      <c r="W18" s="3"/>
-      <c r="X18" s="3"/>
+        <v>592</v>
+      </c>
+      <c r="W18" s="4"/>
+      <c r="X18" s="4"/>
       <c r="Y18">
         <f>V18+1</f>
-        <v>608</v>
+        <v>593</v>
       </c>
       <c r="Z18">
         <f>Y18+1</f>
-        <v>609</v>
+        <v>594</v>
       </c>
       <c r="AA18">
         <f t="shared" ref="AA18:AD19" si="33">Z18+1</f>
-        <v>610</v>
+        <v>595</v>
       </c>
       <c r="AB18">
         <f t="shared" si="33"/>
-        <v>611</v>
+        <v>596</v>
       </c>
       <c r="AC18">
         <f t="shared" si="33"/>
-        <v>612</v>
+        <v>597</v>
       </c>
       <c r="AD18">
         <f t="shared" si="33"/>
-        <v>613</v>
-      </c>
-      <c r="AE18" s="3"/>
-      <c r="AF18" s="3"/>
+        <v>598</v>
+      </c>
+      <c r="AE18" s="4"/>
+      <c r="AF18" s="4"/>
       <c r="AG18">
         <f>AD18+1</f>
-        <v>614</v>
+        <v>599</v>
       </c>
       <c r="AH18">
         <f>AG18+1</f>
-        <v>615</v>
+        <v>600</v>
       </c>
       <c r="AI18">
         <f t="shared" ref="AI18:AL19" si="34">AH18+1</f>
-        <v>616</v>
+        <v>601</v>
       </c>
       <c r="AJ18">
         <f t="shared" si="34"/>
-        <v>617</v>
+        <v>602</v>
       </c>
       <c r="AK18">
         <f t="shared" si="34"/>
-        <v>618</v>
+        <v>603</v>
       </c>
       <c r="AL18">
         <f t="shared" si="34"/>
-        <v>619</v>
-      </c>
-      <c r="AM18" s="3"/>
-      <c r="AN18" s="3"/>
+        <v>604</v>
+      </c>
+      <c r="AM18" s="4"/>
+      <c r="AN18" s="4"/>
       <c r="AO18">
         <f>AL18+1</f>
-        <v>620</v>
+        <v>605</v>
       </c>
       <c r="AP18">
         <f>AO18+1</f>
-        <v>621</v>
+        <v>606</v>
       </c>
       <c r="AQ18">
         <f t="shared" ref="AQ18:AT19" si="35">AP18+1</f>
-        <v>622</v>
+        <v>607</v>
       </c>
       <c r="AR18">
         <f t="shared" si="35"/>
-        <v>623</v>
+        <v>608</v>
       </c>
       <c r="AS18">
         <f t="shared" si="35"/>
-        <v>624</v>
+        <v>609</v>
       </c>
       <c r="AT18">
         <f t="shared" si="35"/>
-        <v>625</v>
-      </c>
-      <c r="AU18" s="3"/>
-      <c r="AV18" s="3"/>
+        <v>610</v>
+      </c>
+      <c r="AU18" s="4"/>
+      <c r="AV18" s="4"/>
       <c r="AW18">
         <f>AT18+1</f>
-        <v>626</v>
+        <v>611</v>
       </c>
       <c r="AX18">
         <f>AW18+1</f>
-        <v>627</v>
+        <v>612</v>
       </c>
       <c r="AY18">
         <f t="shared" ref="AY18:BB19" si="36">AX18+1</f>
-        <v>628</v>
+        <v>613</v>
       </c>
       <c r="AZ18">
         <f t="shared" si="36"/>
-        <v>629</v>
+        <v>614</v>
       </c>
       <c r="BA18">
         <f t="shared" si="36"/>
-        <v>630</v>
+        <v>615</v>
       </c>
       <c r="BB18">
         <f t="shared" si="36"/>
-        <v>631</v>
+        <v>616</v>
       </c>
       <c r="BC18">
         <f t="shared" si="7"/>
@@ -2647,7 +2648,7 @@
       <c r="BG18" s="1"/>
       <c r="BH18" s="1"/>
       <c r="BI18">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>499</v>
       </c>
       <c r="BJ18" s="1"/>
@@ -2655,8 +2656,8 @@
     <row r="19" spans="1:62" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19">
-        <f>B20+1</f>
-        <v>514</v>
+        <f t="shared" si="30"/>
+        <v>517</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -2664,162 +2665,162 @@
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>142</v>
       </c>
       <c r="I19">
         <f>G15+1</f>
-        <v>524</v>
+        <v>509</v>
       </c>
       <c r="J19">
         <f>I19+1</f>
-        <v>525</v>
+        <v>510</v>
       </c>
       <c r="K19">
         <f t="shared" si="31"/>
-        <v>526</v>
+        <v>511</v>
       </c>
       <c r="L19">
         <f t="shared" si="31"/>
-        <v>527</v>
+        <v>512</v>
       </c>
       <c r="M19">
         <f t="shared" si="31"/>
-        <v>528</v>
+        <v>513</v>
       </c>
       <c r="N19">
         <f t="shared" si="31"/>
-        <v>529</v>
-      </c>
-      <c r="O19" s="3"/>
-      <c r="P19" s="3"/>
+        <v>514</v>
+      </c>
+      <c r="O19" s="4"/>
+      <c r="P19" s="4"/>
       <c r="Q19">
         <f>N19+1</f>
-        <v>530</v>
+        <v>515</v>
       </c>
       <c r="R19">
         <f>Q19+1</f>
-        <v>531</v>
+        <v>516</v>
       </c>
       <c r="S19">
         <f t="shared" si="32"/>
-        <v>532</v>
+        <v>517</v>
       </c>
       <c r="T19">
         <f t="shared" si="32"/>
-        <v>533</v>
+        <v>518</v>
       </c>
       <c r="U19">
         <f t="shared" si="32"/>
-        <v>534</v>
+        <v>519</v>
       </c>
       <c r="V19">
         <f t="shared" si="32"/>
-        <v>535</v>
-      </c>
-      <c r="W19" s="3"/>
-      <c r="X19" s="3"/>
+        <v>520</v>
+      </c>
+      <c r="W19" s="4"/>
+      <c r="X19" s="4"/>
       <c r="Y19">
         <f>V19+1</f>
-        <v>536</v>
+        <v>521</v>
       </c>
       <c r="Z19">
         <f>Y19+1</f>
-        <v>537</v>
+        <v>522</v>
       </c>
       <c r="AA19">
         <f t="shared" si="33"/>
-        <v>538</v>
+        <v>523</v>
       </c>
       <c r="AB19">
         <f t="shared" si="33"/>
-        <v>539</v>
+        <v>524</v>
       </c>
       <c r="AC19">
         <f t="shared" si="33"/>
-        <v>540</v>
+        <v>525</v>
       </c>
       <c r="AD19">
         <f t="shared" si="33"/>
-        <v>541</v>
-      </c>
-      <c r="AE19" s="3"/>
-      <c r="AF19" s="3"/>
+        <v>526</v>
+      </c>
+      <c r="AE19" s="4"/>
+      <c r="AF19" s="4"/>
       <c r="AG19">
         <f>AD19+1</f>
-        <v>542</v>
+        <v>527</v>
       </c>
       <c r="AH19">
         <f>AG19+1</f>
-        <v>543</v>
+        <v>528</v>
       </c>
       <c r="AI19">
         <f t="shared" si="34"/>
-        <v>544</v>
+        <v>529</v>
       </c>
       <c r="AJ19">
         <f t="shared" si="34"/>
-        <v>545</v>
+        <v>530</v>
       </c>
       <c r="AK19">
         <f t="shared" si="34"/>
-        <v>546</v>
+        <v>531</v>
       </c>
       <c r="AL19">
         <f t="shared" si="34"/>
-        <v>547</v>
-      </c>
-      <c r="AM19" s="3"/>
-      <c r="AN19" s="3"/>
+        <v>532</v>
+      </c>
+      <c r="AM19" s="4"/>
+      <c r="AN19" s="4"/>
       <c r="AO19">
         <f>AL19+1</f>
-        <v>548</v>
+        <v>533</v>
       </c>
       <c r="AP19">
         <f>AO19+1</f>
-        <v>549</v>
+        <v>534</v>
       </c>
       <c r="AQ19">
         <f t="shared" si="35"/>
-        <v>550</v>
+        <v>535</v>
       </c>
       <c r="AR19">
         <f t="shared" si="35"/>
-        <v>551</v>
+        <v>536</v>
       </c>
       <c r="AS19">
         <f t="shared" si="35"/>
-        <v>552</v>
+        <v>537</v>
       </c>
       <c r="AT19">
         <f t="shared" si="35"/>
-        <v>553</v>
-      </c>
-      <c r="AU19" s="3"/>
-      <c r="AV19" s="3"/>
+        <v>538</v>
+      </c>
+      <c r="AU19" s="4"/>
+      <c r="AV19" s="4"/>
       <c r="AW19">
         <f>AT19+1</f>
-        <v>554</v>
+        <v>539</v>
       </c>
       <c r="AX19">
         <f>AW19+1</f>
-        <v>555</v>
+        <v>540</v>
       </c>
       <c r="AY19">
         <f t="shared" si="36"/>
-        <v>556</v>
+        <v>541</v>
       </c>
       <c r="AZ19">
         <f t="shared" si="36"/>
-        <v>557</v>
+        <v>542</v>
       </c>
       <c r="BA19">
         <f t="shared" si="36"/>
-        <v>558</v>
+        <v>543</v>
       </c>
       <c r="BB19">
         <f t="shared" si="36"/>
-        <v>559</v>
+        <v>544</v>
       </c>
       <c r="BC19">
         <f t="shared" si="7"/>
@@ -2839,28 +2840,28 @@
     <row r="20" spans="1:62" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20">
-        <f t="shared" ref="B20:F20" si="37">C20+1</f>
-        <v>513</v>
+        <f t="shared" si="30"/>
+        <v>518</v>
       </c>
       <c r="C20">
-        <f t="shared" si="37"/>
-        <v>512</v>
+        <f>B20+1</f>
+        <v>519</v>
       </c>
       <c r="D20">
-        <f t="shared" si="37"/>
-        <v>511</v>
+        <f t="shared" ref="D20:G20" si="37">C20+1</f>
+        <v>520</v>
       </c>
       <c r="E20">
         <f t="shared" si="37"/>
-        <v>510</v>
+        <v>521</v>
       </c>
       <c r="F20">
         <f t="shared" si="37"/>
-        <v>509</v>
+        <v>522</v>
       </c>
       <c r="G20">
-        <f>BD15+1</f>
-        <v>508</v>
+        <f t="shared" si="37"/>
+        <v>523</v>
       </c>
       <c r="H20">
         <f t="shared" ref="H20:H32" si="38">H21+1</f>
@@ -2872,40 +2873,40 @@
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
-      <c r="O20" s="3"/>
-      <c r="P20" s="3"/>
+      <c r="O20" s="4"/>
+      <c r="P20" s="4"/>
       <c r="Q20" s="1"/>
       <c r="R20" s="1"/>
       <c r="S20" s="1"/>
       <c r="T20" s="1"/>
       <c r="U20" s="1"/>
       <c r="V20" s="1"/>
-      <c r="W20" s="3"/>
-      <c r="X20" s="3"/>
+      <c r="W20" s="4"/>
+      <c r="X20" s="4"/>
       <c r="Y20" s="1"/>
       <c r="Z20" s="1"/>
       <c r="AA20" s="1"/>
       <c r="AB20" s="1"/>
       <c r="AC20" s="1"/>
       <c r="AD20" s="1"/>
-      <c r="AE20" s="3"/>
-      <c r="AF20" s="3"/>
+      <c r="AE20" s="4"/>
+      <c r="AF20" s="4"/>
       <c r="AG20" s="1"/>
       <c r="AH20" s="1"/>
       <c r="AI20" s="1"/>
       <c r="AJ20" s="1"/>
       <c r="AK20" s="1"/>
       <c r="AL20" s="1"/>
-      <c r="AM20" s="3"/>
-      <c r="AN20" s="3"/>
+      <c r="AM20" s="4"/>
+      <c r="AN20" s="4"/>
       <c r="AO20" s="1"/>
       <c r="AP20" s="1"/>
       <c r="AQ20" s="1"/>
       <c r="AR20" s="1"/>
       <c r="AS20" s="1"/>
       <c r="AT20" s="1"/>
-      <c r="AU20" s="3"/>
-      <c r="AV20" s="3"/>
+      <c r="AU20" s="4"/>
+      <c r="AV20" s="4"/>
       <c r="AW20" s="1"/>
       <c r="AX20" s="1"/>
       <c r="AY20" s="1"/>
@@ -4028,7 +4029,7 @@
         <f t="shared" si="49"/>
         <v>390</v>
       </c>
-      <c r="AV30">
+      <c r="AV30" s="3">
         <f t="shared" si="44"/>
         <v>397</v>
       </c>

--- a/Proyecto03_0.1/backend/map.xlsx
+++ b/Proyecto03_0.1/backend/map.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2250" windowWidth="28800" windowHeight="14370"/>
+    <workbookView xWindow="0" yWindow="2700" windowWidth="28800" windowHeight="14370"/>
   </bookViews>
   <sheets>
     <sheet name="map" sheetId="1" r:id="rId1"/>
@@ -357,7 +357,7 @@
   <dimension ref="A1:BJ35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AV30" sqref="AV30"/>
+      <selection activeCell="AM9" sqref="AM9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2018,7 +2018,7 @@
       <c r="N15" s="1"/>
       <c r="O15" s="4">
         <f>I17+1</f>
-        <v>653</v>
+        <v>668</v>
       </c>
       <c r="P15" s="4"/>
       <c r="Q15" s="1"/>
@@ -2029,7 +2029,7 @@
       <c r="V15" s="1"/>
       <c r="W15" s="4">
         <f>O15+1</f>
-        <v>654</v>
+        <v>669</v>
       </c>
       <c r="X15" s="4"/>
       <c r="Y15" s="1"/>
@@ -2040,7 +2040,7 @@
       <c r="AD15" s="1"/>
       <c r="AE15" s="4">
         <f>W15+1</f>
-        <v>655</v>
+        <v>670</v>
       </c>
       <c r="AF15" s="4"/>
       <c r="AG15" s="1"/>
@@ -2051,7 +2051,7 @@
       <c r="AL15" s="1"/>
       <c r="AM15" s="4">
         <f>AE15+1</f>
-        <v>656</v>
+        <v>671</v>
       </c>
       <c r="AN15" s="4"/>
       <c r="AO15" s="1"/>
@@ -2062,7 +2062,7 @@
       <c r="AT15" s="1"/>
       <c r="AU15" s="4">
         <f>AM15+1</f>
-        <v>657</v>
+        <v>672</v>
       </c>
       <c r="AV15" s="4"/>
       <c r="AW15" s="1"/>
@@ -2118,157 +2118,157 @@
       </c>
       <c r="I16">
         <f>J16+1</f>
-        <v>580</v>
+        <v>595</v>
       </c>
       <c r="J16">
         <f t="shared" ref="J16:M17" si="24">K16+1</f>
-        <v>579</v>
+        <v>594</v>
       </c>
       <c r="K16">
         <f t="shared" si="24"/>
-        <v>578</v>
+        <v>593</v>
       </c>
       <c r="L16">
         <f t="shared" si="24"/>
-        <v>577</v>
+        <v>592</v>
       </c>
       <c r="M16">
         <f t="shared" si="24"/>
-        <v>576</v>
+        <v>591</v>
       </c>
       <c r="N16">
         <f>Q16+1</f>
-        <v>575</v>
+        <v>590</v>
       </c>
       <c r="O16" s="4"/>
       <c r="P16" s="4"/>
       <c r="Q16">
         <f t="shared" ref="Q16:U17" si="25">R16+1</f>
-        <v>574</v>
+        <v>589</v>
       </c>
       <c r="R16">
         <f t="shared" si="25"/>
-        <v>573</v>
+        <v>588</v>
       </c>
       <c r="S16">
         <f t="shared" si="25"/>
-        <v>572</v>
+        <v>587</v>
       </c>
       <c r="T16">
         <f t="shared" si="25"/>
-        <v>571</v>
+        <v>586</v>
       </c>
       <c r="U16">
         <f t="shared" si="25"/>
-        <v>570</v>
+        <v>585</v>
       </c>
       <c r="V16">
         <f>Y16+1</f>
-        <v>569</v>
+        <v>584</v>
       </c>
       <c r="W16" s="4"/>
       <c r="X16" s="4"/>
       <c r="Y16">
         <f t="shared" ref="Y16:AC17" si="26">Z16+1</f>
-        <v>568</v>
+        <v>583</v>
       </c>
       <c r="Z16">
         <f t="shared" si="26"/>
-        <v>567</v>
+        <v>582</v>
       </c>
       <c r="AA16">
         <f t="shared" si="26"/>
-        <v>566</v>
+        <v>581</v>
       </c>
       <c r="AB16">
         <f t="shared" si="26"/>
-        <v>565</v>
+        <v>580</v>
       </c>
       <c r="AC16">
         <f t="shared" si="26"/>
-        <v>564</v>
+        <v>579</v>
       </c>
       <c r="AD16">
         <f>AG16+1</f>
-        <v>563</v>
+        <v>578</v>
       </c>
       <c r="AE16" s="4"/>
       <c r="AF16" s="4"/>
       <c r="AG16">
         <f t="shared" ref="AG16:AK17" si="27">AH16+1</f>
-        <v>562</v>
+        <v>577</v>
       </c>
       <c r="AH16">
         <f t="shared" si="27"/>
-        <v>561</v>
+        <v>576</v>
       </c>
       <c r="AI16">
         <f t="shared" si="27"/>
-        <v>560</v>
+        <v>575</v>
       </c>
       <c r="AJ16">
         <f t="shared" si="27"/>
-        <v>559</v>
+        <v>574</v>
       </c>
       <c r="AK16">
         <f t="shared" si="27"/>
-        <v>558</v>
+        <v>573</v>
       </c>
       <c r="AL16">
         <f>AO16+1</f>
-        <v>557</v>
+        <v>572</v>
       </c>
       <c r="AM16" s="4"/>
       <c r="AN16" s="4"/>
       <c r="AO16">
         <f t="shared" ref="AO16:AS17" si="28">AP16+1</f>
-        <v>556</v>
+        <v>571</v>
       </c>
       <c r="AP16">
         <f t="shared" si="28"/>
-        <v>555</v>
+        <v>570</v>
       </c>
       <c r="AQ16">
         <f t="shared" si="28"/>
-        <v>554</v>
+        <v>569</v>
       </c>
       <c r="AR16">
         <f t="shared" si="28"/>
-        <v>553</v>
+        <v>568</v>
       </c>
       <c r="AS16">
         <f t="shared" si="28"/>
-        <v>552</v>
+        <v>567</v>
       </c>
       <c r="AT16">
         <f>AW16+1</f>
-        <v>551</v>
+        <v>566</v>
       </c>
       <c r="AU16" s="4"/>
       <c r="AV16" s="4"/>
       <c r="AW16">
         <f t="shared" ref="AW16:AZ17" si="29">AX16+1</f>
-        <v>550</v>
+        <v>565</v>
       </c>
       <c r="AX16">
         <f t="shared" si="29"/>
-        <v>549</v>
+        <v>564</v>
       </c>
       <c r="AY16">
         <f t="shared" si="29"/>
-        <v>548</v>
+        <v>563</v>
       </c>
       <c r="AZ16">
         <f t="shared" si="29"/>
-        <v>547</v>
+        <v>562</v>
       </c>
       <c r="BA16">
         <f>BB16+1</f>
-        <v>546</v>
+        <v>561</v>
       </c>
       <c r="BB16">
         <f>BB19+1</f>
-        <v>545</v>
+        <v>560</v>
       </c>
       <c r="BC16">
         <f t="shared" si="7"/>
@@ -2302,157 +2302,157 @@
       </c>
       <c r="I17">
         <f>J17+1</f>
-        <v>652</v>
+        <v>667</v>
       </c>
       <c r="J17">
         <f t="shared" si="24"/>
-        <v>651</v>
+        <v>666</v>
       </c>
       <c r="K17">
         <f t="shared" si="24"/>
-        <v>650</v>
+        <v>665</v>
       </c>
       <c r="L17">
         <f t="shared" si="24"/>
-        <v>649</v>
+        <v>664</v>
       </c>
       <c r="M17">
         <f t="shared" si="24"/>
-        <v>648</v>
+        <v>663</v>
       </c>
       <c r="N17">
         <f>Q17+1</f>
-        <v>647</v>
+        <v>662</v>
       </c>
       <c r="O17" s="4"/>
       <c r="P17" s="4"/>
       <c r="Q17">
         <f t="shared" si="25"/>
-        <v>646</v>
+        <v>661</v>
       </c>
       <c r="R17">
         <f t="shared" si="25"/>
-        <v>645</v>
+        <v>660</v>
       </c>
       <c r="S17">
         <f t="shared" si="25"/>
-        <v>644</v>
+        <v>659</v>
       </c>
       <c r="T17">
         <f t="shared" si="25"/>
-        <v>643</v>
+        <v>658</v>
       </c>
       <c r="U17">
         <f t="shared" si="25"/>
-        <v>642</v>
+        <v>657</v>
       </c>
       <c r="V17">
         <f>Y17+1</f>
-        <v>641</v>
+        <v>656</v>
       </c>
       <c r="W17" s="4"/>
       <c r="X17" s="4"/>
       <c r="Y17">
         <f t="shared" si="26"/>
-        <v>640</v>
+        <v>655</v>
       </c>
       <c r="Z17">
         <f t="shared" si="26"/>
-        <v>639</v>
+        <v>654</v>
       </c>
       <c r="AA17">
         <f t="shared" si="26"/>
-        <v>638</v>
+        <v>653</v>
       </c>
       <c r="AB17">
         <f t="shared" si="26"/>
-        <v>637</v>
+        <v>652</v>
       </c>
       <c r="AC17">
         <f t="shared" si="26"/>
-        <v>636</v>
+        <v>651</v>
       </c>
       <c r="AD17">
         <f>AG17+1</f>
-        <v>635</v>
+        <v>650</v>
       </c>
       <c r="AE17" s="4"/>
       <c r="AF17" s="4"/>
       <c r="AG17">
         <f t="shared" si="27"/>
-        <v>634</v>
+        <v>649</v>
       </c>
       <c r="AH17">
         <f t="shared" si="27"/>
-        <v>633</v>
+        <v>648</v>
       </c>
       <c r="AI17">
         <f t="shared" si="27"/>
-        <v>632</v>
+        <v>647</v>
       </c>
       <c r="AJ17">
         <f t="shared" si="27"/>
-        <v>631</v>
+        <v>646</v>
       </c>
       <c r="AK17">
         <f t="shared" si="27"/>
-        <v>630</v>
+        <v>645</v>
       </c>
       <c r="AL17">
         <f>AO17+1</f>
-        <v>629</v>
+        <v>644</v>
       </c>
       <c r="AM17" s="4"/>
       <c r="AN17" s="4"/>
       <c r="AO17">
         <f t="shared" si="28"/>
-        <v>628</v>
+        <v>643</v>
       </c>
       <c r="AP17">
         <f t="shared" si="28"/>
-        <v>627</v>
+        <v>642</v>
       </c>
       <c r="AQ17">
         <f t="shared" si="28"/>
-        <v>626</v>
+        <v>641</v>
       </c>
       <c r="AR17">
         <f t="shared" si="28"/>
-        <v>625</v>
+        <v>640</v>
       </c>
       <c r="AS17">
         <f t="shared" si="28"/>
-        <v>624</v>
+        <v>639</v>
       </c>
       <c r="AT17">
         <f>AW17+1</f>
-        <v>623</v>
+        <v>638</v>
       </c>
       <c r="AU17" s="4"/>
       <c r="AV17" s="4"/>
       <c r="AW17">
         <f t="shared" si="29"/>
-        <v>622</v>
+        <v>637</v>
       </c>
       <c r="AX17">
         <f t="shared" si="29"/>
-        <v>621</v>
+        <v>636</v>
       </c>
       <c r="AY17">
         <f t="shared" si="29"/>
-        <v>620</v>
+        <v>635</v>
       </c>
       <c r="AZ17">
         <f t="shared" si="29"/>
-        <v>619</v>
+        <v>634</v>
       </c>
       <c r="BA17">
         <f>BB17+1</f>
-        <v>618</v>
+        <v>633</v>
       </c>
       <c r="BB17">
         <f>BB18+1</f>
-        <v>617</v>
+        <v>632</v>
       </c>
       <c r="BC17">
         <f t="shared" si="7"/>
@@ -2486,157 +2486,157 @@
       </c>
       <c r="I18" s="3">
         <f>I16+1</f>
-        <v>581</v>
+        <v>596</v>
       </c>
       <c r="J18">
         <f>I18+1</f>
-        <v>582</v>
+        <v>597</v>
       </c>
       <c r="K18">
         <f t="shared" ref="K18:N19" si="31">J18+1</f>
-        <v>583</v>
+        <v>598</v>
       </c>
       <c r="L18">
         <f t="shared" si="31"/>
-        <v>584</v>
+        <v>599</v>
       </c>
       <c r="M18">
         <f t="shared" si="31"/>
-        <v>585</v>
+        <v>600</v>
       </c>
       <c r="N18">
         <f t="shared" si="31"/>
-        <v>586</v>
+        <v>601</v>
       </c>
       <c r="O18" s="4"/>
       <c r="P18" s="4"/>
       <c r="Q18" s="3">
         <f>N18+1</f>
-        <v>587</v>
+        <v>602</v>
       </c>
       <c r="R18">
         <f>Q18+1</f>
-        <v>588</v>
+        <v>603</v>
       </c>
       <c r="S18">
         <f t="shared" ref="S18:V19" si="32">R18+1</f>
-        <v>589</v>
+        <v>604</v>
       </c>
       <c r="T18">
         <f t="shared" si="32"/>
-        <v>590</v>
+        <v>605</v>
       </c>
       <c r="U18">
         <f t="shared" si="32"/>
-        <v>591</v>
+        <v>606</v>
       </c>
       <c r="V18">
         <f t="shared" si="32"/>
-        <v>592</v>
+        <v>607</v>
       </c>
       <c r="W18" s="4"/>
       <c r="X18" s="4"/>
       <c r="Y18">
         <f>V18+1</f>
-        <v>593</v>
+        <v>608</v>
       </c>
       <c r="Z18">
         <f>Y18+1</f>
-        <v>594</v>
+        <v>609</v>
       </c>
       <c r="AA18">
         <f t="shared" ref="AA18:AD19" si="33">Z18+1</f>
-        <v>595</v>
+        <v>610</v>
       </c>
       <c r="AB18">
         <f t="shared" si="33"/>
-        <v>596</v>
+        <v>611</v>
       </c>
       <c r="AC18">
         <f t="shared" si="33"/>
-        <v>597</v>
+        <v>612</v>
       </c>
       <c r="AD18">
         <f t="shared" si="33"/>
-        <v>598</v>
+        <v>613</v>
       </c>
       <c r="AE18" s="4"/>
       <c r="AF18" s="4"/>
       <c r="AG18">
         <f>AD18+1</f>
-        <v>599</v>
+        <v>614</v>
       </c>
       <c r="AH18">
         <f>AG18+1</f>
-        <v>600</v>
+        <v>615</v>
       </c>
       <c r="AI18">
         <f t="shared" ref="AI18:AL19" si="34">AH18+1</f>
-        <v>601</v>
+        <v>616</v>
       </c>
       <c r="AJ18">
         <f t="shared" si="34"/>
-        <v>602</v>
+        <v>617</v>
       </c>
       <c r="AK18">
         <f t="shared" si="34"/>
-        <v>603</v>
+        <v>618</v>
       </c>
       <c r="AL18">
         <f t="shared" si="34"/>
-        <v>604</v>
+        <v>619</v>
       </c>
       <c r="AM18" s="4"/>
       <c r="AN18" s="4"/>
       <c r="AO18">
         <f>AL18+1</f>
-        <v>605</v>
+        <v>620</v>
       </c>
       <c r="AP18">
         <f>AO18+1</f>
-        <v>606</v>
+        <v>621</v>
       </c>
       <c r="AQ18">
         <f t="shared" ref="AQ18:AT19" si="35">AP18+1</f>
-        <v>607</v>
+        <v>622</v>
       </c>
       <c r="AR18">
         <f t="shared" si="35"/>
-        <v>608</v>
+        <v>623</v>
       </c>
       <c r="AS18">
         <f t="shared" si="35"/>
-        <v>609</v>
+        <v>624</v>
       </c>
       <c r="AT18">
         <f t="shared" si="35"/>
-        <v>610</v>
+        <v>625</v>
       </c>
       <c r="AU18" s="4"/>
       <c r="AV18" s="4"/>
       <c r="AW18">
         <f>AT18+1</f>
-        <v>611</v>
+        <v>626</v>
       </c>
       <c r="AX18">
         <f>AW18+1</f>
-        <v>612</v>
+        <v>627</v>
       </c>
       <c r="AY18">
         <f t="shared" ref="AY18:BB19" si="36">AX18+1</f>
-        <v>613</v>
+        <v>628</v>
       </c>
       <c r="AZ18">
         <f t="shared" si="36"/>
-        <v>614</v>
+        <v>629</v>
       </c>
       <c r="BA18">
         <f t="shared" si="36"/>
-        <v>615</v>
+        <v>630</v>
       </c>
       <c r="BB18">
         <f t="shared" si="36"/>
-        <v>616</v>
+        <v>631</v>
       </c>
       <c r="BC18">
         <f t="shared" si="7"/>
@@ -2669,158 +2669,158 @@
         <v>142</v>
       </c>
       <c r="I19">
-        <f>G15+1</f>
-        <v>509</v>
+        <f>G20+1</f>
+        <v>524</v>
       </c>
       <c r="J19">
         <f>I19+1</f>
-        <v>510</v>
+        <v>525</v>
       </c>
       <c r="K19">
         <f t="shared" si="31"/>
-        <v>511</v>
+        <v>526</v>
       </c>
       <c r="L19">
         <f t="shared" si="31"/>
-        <v>512</v>
+        <v>527</v>
       </c>
       <c r="M19">
         <f t="shared" si="31"/>
-        <v>513</v>
+        <v>528</v>
       </c>
       <c r="N19">
         <f t="shared" si="31"/>
-        <v>514</v>
+        <v>529</v>
       </c>
       <c r="O19" s="4"/>
       <c r="P19" s="4"/>
       <c r="Q19">
         <f>N19+1</f>
-        <v>515</v>
+        <v>530</v>
       </c>
       <c r="R19">
         <f>Q19+1</f>
-        <v>516</v>
+        <v>531</v>
       </c>
       <c r="S19">
         <f t="shared" si="32"/>
-        <v>517</v>
+        <v>532</v>
       </c>
       <c r="T19">
         <f t="shared" si="32"/>
-        <v>518</v>
+        <v>533</v>
       </c>
       <c r="U19">
         <f t="shared" si="32"/>
-        <v>519</v>
+        <v>534</v>
       </c>
       <c r="V19">
         <f t="shared" si="32"/>
-        <v>520</v>
+        <v>535</v>
       </c>
       <c r="W19" s="4"/>
       <c r="X19" s="4"/>
       <c r="Y19">
         <f>V19+1</f>
-        <v>521</v>
+        <v>536</v>
       </c>
       <c r="Z19">
         <f>Y19+1</f>
-        <v>522</v>
+        <v>537</v>
       </c>
       <c r="AA19">
         <f t="shared" si="33"/>
-        <v>523</v>
+        <v>538</v>
       </c>
       <c r="AB19">
         <f t="shared" si="33"/>
-        <v>524</v>
+        <v>539</v>
       </c>
       <c r="AC19">
         <f t="shared" si="33"/>
-        <v>525</v>
+        <v>540</v>
       </c>
       <c r="AD19">
         <f t="shared" si="33"/>
-        <v>526</v>
+        <v>541</v>
       </c>
       <c r="AE19" s="4"/>
       <c r="AF19" s="4"/>
       <c r="AG19">
         <f>AD19+1</f>
-        <v>527</v>
+        <v>542</v>
       </c>
       <c r="AH19">
         <f>AG19+1</f>
-        <v>528</v>
+        <v>543</v>
       </c>
       <c r="AI19">
         <f t="shared" si="34"/>
-        <v>529</v>
+        <v>544</v>
       </c>
       <c r="AJ19">
         <f t="shared" si="34"/>
-        <v>530</v>
+        <v>545</v>
       </c>
       <c r="AK19">
         <f t="shared" si="34"/>
-        <v>531</v>
+        <v>546</v>
       </c>
       <c r="AL19">
         <f t="shared" si="34"/>
-        <v>532</v>
+        <v>547</v>
       </c>
       <c r="AM19" s="4"/>
       <c r="AN19" s="4"/>
       <c r="AO19">
         <f>AL19+1</f>
-        <v>533</v>
+        <v>548</v>
       </c>
       <c r="AP19">
         <f>AO19+1</f>
-        <v>534</v>
+        <v>549</v>
       </c>
       <c r="AQ19">
         <f t="shared" si="35"/>
-        <v>535</v>
+        <v>550</v>
       </c>
       <c r="AR19">
         <f t="shared" si="35"/>
-        <v>536</v>
+        <v>551</v>
       </c>
       <c r="AS19">
         <f t="shared" si="35"/>
-        <v>537</v>
+        <v>552</v>
       </c>
       <c r="AT19">
         <f t="shared" si="35"/>
-        <v>538</v>
+        <v>553</v>
       </c>
       <c r="AU19" s="4"/>
       <c r="AV19" s="4"/>
       <c r="AW19">
         <f>AT19+1</f>
-        <v>539</v>
+        <v>554</v>
       </c>
       <c r="AX19">
         <f>AW19+1</f>
-        <v>540</v>
+        <v>555</v>
       </c>
       <c r="AY19">
         <f t="shared" si="36"/>
-        <v>541</v>
+        <v>556</v>
       </c>
       <c r="AZ19">
         <f t="shared" si="36"/>
-        <v>542</v>
+        <v>557</v>
       </c>
       <c r="BA19">
         <f t="shared" si="36"/>
-        <v>543</v>
+        <v>558</v>
       </c>
       <c r="BB19">
         <f t="shared" si="36"/>
-        <v>544</v>
+        <v>559</v>
       </c>
       <c r="BC19">
         <f t="shared" si="7"/>
